--- a/src/test/resources/EcommerceBestBuy.xlsx
+++ b/src/test/resources/EcommerceBestBuy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7500" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="SigninTestCase" sheetId="1" r:id="rId1"/>
@@ -1721,7 +1721,7 @@
   <sheetPr/>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:H15"/>
     </sheetView>
   </sheetViews>
@@ -2514,7 +2514,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
